--- a/biology/Biochimie/EMBOSS/EMBOSS.xlsx
+++ b/biology/Biochimie/EMBOSS/EMBOSS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EMBOSS est un logiciel gratuit en open source de l'Institut européen de bio-informatique (EBI) dont l'acronyme signifie European Molecular Biology Open Software Suite. Il a été développé à l'intention des utilisateurs dans les domaines de la biologie moléculaire et de la bio-informatique[1]. Il permet de traiter des données et notamment des séquences biologiques importées depuis internet dans une large gamme de formats différents. Il dispose de bibliothèques de fonctions permettant l'analyse des séquences — alignement de séquences, recherches de modèles de séquences dans des bases de données, identification de motifs structuraux de protéines (dont l'analyse des domaines), etc. — à l'aide d'outils homogènes et peut également être utilisé pour développer d'autres logiciels en open source.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMBOSS est un logiciel gratuit en open source de l'Institut européen de bio-informatique (EBI) dont l'acronyme signifie European Molecular Biology Open Software Suite. Il a été développé à l'intention des utilisateurs dans les domaines de la biologie moléculaire et de la bio-informatique. Il permet de traiter des données et notamment des séquences biologiques importées depuis internet dans une large gamme de formats différents. Il dispose de bibliothèques de fonctions permettant l'analyse des séquences — alignement de séquences, recherches de modèles de séquences dans des bases de données, identification de motifs structuraux de protéines (dont l'analyse des domaines), etc. — à l'aide d'outils homogènes et peut également être utilisé pour développer d'autres logiciels en open source.
 </t>
         </is>
       </c>
